--- a/Dynamic Scheduler/ExerciseInfo.xlsx
+++ b/Dynamic Scheduler/ExerciseInfo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bluepp-my.sharepoint.com/personal/jdr_bluepp_dk/Documents/Desktop/Dynamic Scheduler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JacobDrachmann\GitHub\The_dynamic_scheduler-1\Dynamic Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="8_{0DF30122-45E0-4DDD-A6FD-F54076C8488E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{061CEB78-41B7-4E68-B5AA-49152111B28C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1230A0D2-63EB-476F-943C-2F23F40CF112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="740" windowWidth="19180" windowHeight="10060" xr2:uid="{886A36A0-1DB9-4779-A4E5-9F1E6754777D}"/>
   </bookViews>
@@ -494,7 +494,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>

--- a/Dynamic Scheduler/ExerciseInfo.xlsx
+++ b/Dynamic Scheduler/ExerciseInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JacobDrachmann\GitHub\The_dynamic_scheduler-1\Dynamic Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1230A0D2-63EB-476F-943C-2F23F40CF112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8CB1F7-26BB-42C8-84D6-7497F1A4D366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="740" windowWidth="19180" windowHeight="10060" xr2:uid="{886A36A0-1DB9-4779-A4E5-9F1E6754777D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{886A36A0-1DB9-4779-A4E5-9F1E6754777D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,52 +65,52 @@
     <t>Bicep</t>
   </si>
   <si>
-    <t>Tricep_ext</t>
-  </si>
-  <si>
-    <t>Shoulder_press</t>
-  </si>
-  <si>
     <t>Quads</t>
   </si>
   <si>
     <t>Hamstrings</t>
   </si>
   <si>
-    <t>Lateral_delts</t>
-  </si>
-  <si>
-    <t>Front_delts</t>
-  </si>
-  <si>
     <t>Glutes</t>
   </si>
   <si>
     <t>Calf</t>
   </si>
   <si>
-    <t>Leg_curls</t>
-  </si>
-  <si>
-    <t>Leg_extensions</t>
-  </si>
-  <si>
-    <t>Calf_raises</t>
-  </si>
-  <si>
-    <t>Lateral_raises</t>
-  </si>
-  <si>
-    <t>chest_supported_row</t>
-  </si>
-  <si>
-    <t>Chest_fly</t>
-  </si>
-  <si>
-    <t>Chest_press</t>
-  </si>
-  <si>
-    <t>Romanian Deadlift</t>
+    <t>Romanian_Deadlift</t>
+  </si>
+  <si>
+    <t>Chest_Press</t>
+  </si>
+  <si>
+    <t>Tricep_Ext</t>
+  </si>
+  <si>
+    <t>Shoulder_Press</t>
+  </si>
+  <si>
+    <t>Leg_Curls</t>
+  </si>
+  <si>
+    <t>Leg_Extensions</t>
+  </si>
+  <si>
+    <t>Calf_Raises</t>
+  </si>
+  <si>
+    <t>Lateral_Raises</t>
+  </si>
+  <si>
+    <t>Chest_Supported_Row</t>
+  </si>
+  <si>
+    <t>Chest_Fly</t>
+  </si>
+  <si>
+    <t>Front_Delt</t>
+  </si>
+  <si>
+    <t>Lateral_Delt</t>
   </si>
 </sst>
 </file>
@@ -126,8 +126,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FFCE9178"/>
+      <sz val="10"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -494,12 +493,12 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.08984375" customWidth="1"/>
     <col min="2" max="2" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -517,10 +516,10 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
         <v>8</v>
@@ -529,21 +528,21 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -581,7 +580,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -733,7 +732,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -771,7 +770,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>4</v>
